--- a/grupos/1BM - Estadisticos 20211.xlsx
+++ b/grupos/1BM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="145">
   <si>
     <t>Materia</t>
   </si>
@@ -179,16 +179,16 @@
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
+    <t>Velasco Sánchez David</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
-    <t>Velasco Sánchez David</t>
+    <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
     <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
     <t>García Sánchez Magda Bexabe</t>
@@ -941,22 +941,22 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -995,22 +995,22 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U4">
         <v>7</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1018,7 +1018,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1033,7 +1033,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1072,7 +1072,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1087,7 +1087,7 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1095,22 +1095,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1149,22 +1149,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>8</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W6">
         <v>9</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1172,22 +1172,22 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1226,22 +1226,22 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <v>9</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1303,7 +1303,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>-1</v>
@@ -1318,7 +1318,7 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1326,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1338,10 +1338,10 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1380,7 +1380,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>-1</v>
@@ -1392,10 +1392,10 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1403,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1415,10 +1415,10 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1457,7 +1457,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U10">
         <v>8</v>
@@ -1469,10 +1469,10 @@
         <v>7</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1480,22 +1480,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1534,22 +1534,22 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U11">
         <v>-1</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>6</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1557,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1572,7 +1572,7 @@
         <v>-1</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1611,7 +1611,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -1626,7 +1626,7 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1634,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1646,10 +1646,10 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1688,7 +1688,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <v>6</v>
@@ -1700,10 +1700,10 @@
         <v>7</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1711,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1723,10 +1723,10 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1765,7 +1765,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>6</v>
@@ -1777,10 +1777,10 @@
         <v>7</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1788,7 +1788,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1803,7 +1803,7 @@
         <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U15">
         <v>6</v>
@@ -1857,7 +1857,7 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1865,22 +1865,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1919,22 +1919,22 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U16">
         <v>6</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W16">
         <v>6</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1957,7 +1957,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1996,7 +1996,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -2011,7 +2011,7 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2019,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -2034,7 +2034,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2073,7 +2073,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>-1</v>
@@ -2088,7 +2088,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2096,7 +2096,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -2108,10 +2108,10 @@
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2150,7 +2150,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>6</v>
@@ -2162,10 +2162,10 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2173,7 +2173,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -2188,7 +2188,7 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2227,7 +2227,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U20">
         <v>-1</v>
@@ -2242,7 +2242,7 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2250,22 +2250,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2304,22 +2304,22 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2327,7 +2327,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -2342,7 +2342,7 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2381,7 +2381,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>6</v>
@@ -2396,7 +2396,7 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2404,7 +2404,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2458,7 +2458,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2473,7 +2473,7 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2481,7 +2481,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2493,10 +2493,10 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -2547,10 +2547,10 @@
         <v>7</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2558,22 +2558,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2612,22 +2612,22 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <v>8</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W25">
         <v>9</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2635,22 +2635,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2689,22 +2689,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>6</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W26">
         <v>8</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2712,22 +2712,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2766,22 +2766,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U27">
         <v>9</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W27">
         <v>9</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2789,22 +2789,22 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2843,22 +2843,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W28">
         <v>8</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2866,7 +2866,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2878,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2920,7 +2920,7 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <v>8</v>
@@ -2932,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2943,22 +2943,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2997,22 +2997,22 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U30">
         <v>8</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W30">
         <v>9</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3020,22 +3020,22 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3074,22 +3074,22 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U31">
         <v>9</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W31">
         <v>8</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3097,7 +3097,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -3109,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3151,7 +3151,7 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U32">
         <v>-1</v>
@@ -3163,10 +3163,10 @@
         <v>8</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3174,22 +3174,22 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>8</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3228,22 +3228,22 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U33">
         <v>8</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W33">
         <v>8</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3251,22 +3251,22 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3305,22 +3305,22 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U34">
         <v>10</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W34">
         <v>8</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3388,27 +3388,30 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>45.16</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.5</v>
+      </c>
       <c r="I2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -3417,27 +3420,30 @@
         <v>31</v>
       </c>
       <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="G3">
+        <v>32.26</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -3446,27 +3452,30 @@
         <v>31</v>
       </c>
       <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>70.97</v>
+      </c>
+      <c r="G4">
+        <v>29.03</v>
+      </c>
+      <c r="H4">
+        <v>6.6</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -3475,27 +3484,30 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>7.4</v>
+      </c>
       <c r="I5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -3651,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3671,7 +3683,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3691,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3711,7 +3723,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3771,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3791,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3811,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3831,7 +3843,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3891,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3911,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3931,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3951,7 +3963,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4011,7 +4023,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4031,7 +4043,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4051,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4071,7 +4083,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4131,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4151,7 +4163,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4171,7 +4183,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4191,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4251,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4271,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4291,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4311,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4371,7 +4383,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4391,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4411,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4431,7 +4443,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4491,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4511,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4531,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4551,7 +4563,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4611,7 +4623,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4631,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4651,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4671,7 +4683,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4731,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4751,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4771,7 +4783,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4791,7 +4803,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4851,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4871,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4891,7 +4903,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4911,7 +4923,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4971,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4991,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5011,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5031,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5091,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5111,7 +5123,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5131,7 +5143,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5151,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5211,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5231,7 +5243,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5251,7 +5263,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5271,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5331,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5351,7 +5363,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5371,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5391,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5451,7 +5463,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5471,7 +5483,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5491,7 +5503,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5511,7 +5523,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5571,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5591,7 +5603,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5611,7 +5623,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5631,7 +5643,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5691,7 +5703,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5711,7 +5723,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5731,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5751,7 +5763,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5811,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5831,7 +5843,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5851,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5871,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5931,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5951,7 +5963,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5971,7 +5983,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5991,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6051,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6071,7 +6083,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6091,7 +6103,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6111,7 +6123,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6171,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6191,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6211,7 +6223,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6231,7 +6243,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6291,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6311,7 +6323,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6331,7 +6343,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6351,7 +6363,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6411,7 +6423,7 @@
         <v>5</v>
       </c>
       <c r="F142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6431,7 +6443,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6451,7 +6463,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6471,7 +6483,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6531,7 +6543,7 @@
         <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6551,7 +6563,7 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6571,7 +6583,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6591,7 +6603,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6651,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6671,7 +6683,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6691,7 +6703,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6711,7 +6723,7 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6771,7 +6783,7 @@
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6791,7 +6803,7 @@
         <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6811,7 +6823,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6831,7 +6843,7 @@
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6891,7 +6903,7 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6911,7 +6923,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6931,7 +6943,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6951,7 +6963,7 @@
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7011,7 +7023,7 @@
         <v>5</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7031,7 +7043,7 @@
         <v>6</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7051,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7071,7 +7083,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7131,7 +7143,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7151,7 +7163,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7171,7 +7183,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7191,7 +7203,7 @@
         <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7251,7 +7263,7 @@
         <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7271,7 +7283,7 @@
         <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7291,7 +7303,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7311,7 +7323,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7882,7 +7894,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7915,6 +7927,282 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1BM - Estadisticos 20211.xlsx
+++ b/grupos/1BM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
   <si>
     <t>Materia</t>
   </si>
@@ -209,63 +209,168 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CHULIN</t>
+  </si>
+  <si>
+    <t>ELVIRA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>QUIJANO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>PEDRO EVER</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAIR</t>
+  </si>
+  <si>
+    <t>JORGE GUILLERMO</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>CESAR SAID</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PATRICIO</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>WENCESLAO</t>
+  </si>
+  <si>
+    <t>ADAHIR</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ANGEL DANIEL</t>
+  </si>
+  <si>
+    <t>JUAN PABLO</t>
+  </si>
+  <si>
+    <t>JORGE MARIO</t>
+  </si>
+  <si>
+    <t>LUIS REY</t>
+  </si>
+  <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CHULIN</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>ELVIRA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>QUIJANO</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
     <t>ROSALIANO</t>
   </si>
   <si>
@@ -275,18 +380,9 @@
     <t>ROSETE</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
     <t>VENTURA</t>
   </si>
   <si>
@@ -302,60 +398,18 @@
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>DEL ROSARIO</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
     <t>ROSALES</t>
   </si>
   <si>
@@ -365,66 +419,18 @@
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>PEDRO EVER</t>
-  </si>
-  <si>
     <t>NEIL</t>
   </si>
   <si>
     <t>IVAN</t>
   </si>
   <si>
-    <t>ANGEL ALDAIR</t>
-  </si>
-  <si>
-    <t>JORGE GUILLERMO</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>CESAR SAID</t>
-  </si>
-  <si>
     <t>JASIEL</t>
   </si>
   <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
     <t>CELSO ALEJANDRO</t>
   </si>
   <si>
-    <t>PATRICIO</t>
-  </si>
-  <si>
-    <t>GREGORIO</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>WENCESLAO</t>
-  </si>
-  <si>
-    <t>ADAHIR</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>JOSE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL</t>
-  </si>
-  <si>
-    <t>JUAN PABLO</t>
-  </si>
-  <si>
     <t>DIEGO HUMBERTO</t>
   </si>
   <si>
@@ -437,16 +443,10 @@
     <t>ZURIEL ELIHU</t>
   </si>
   <si>
-    <t>JORGE MARIO</t>
-  </si>
-  <si>
     <t>ARIEL CHARBEL</t>
   </si>
   <si>
     <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>LUIS REY</t>
   </si>
   <si>
     <t>GUSTAVO</t>
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W13">
         <v>7</v>
@@ -3388,13 +3388,13 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.16</v>
+        <v>48.39</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3403,10 +3403,10 @@
         <v>7.5</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>54.84</v>
+        <v>51.61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>21330051920185</v>
+        <v>21330051920186</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3628,16 +3628,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>21330051920185</v>
+        <v>21330051920186</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3648,156 +3648,156 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21330051920185</v>
+        <v>21330051920186</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920185</v>
+        <v>21330051920186</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920185</v>
+        <v>21330051920189</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920185</v>
+        <v>21330051920189</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920186</v>
+        <v>21330051920189</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920186</v>
+        <v>21330051920190</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920186</v>
+        <v>21330051920190</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920186</v>
+        <v>21330051920190</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3808,156 +3808,156 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920186</v>
+        <v>21330051920191</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920186</v>
+        <v>21330051920192</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920187</v>
+        <v>21330051920194</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920187</v>
+        <v>21330051920195</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920187</v>
+        <v>21330051920195</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920187</v>
+        <v>21330051920195</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920187</v>
+        <v>21330051920197</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920187</v>
+        <v>21330051920197</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3968,3362 +3968,482 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920188</v>
+        <v>21330051920386</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920188</v>
+        <v>21330051920386</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920188</v>
+        <v>21330051920386</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920188</v>
+        <v>21330051920198</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920188</v>
+        <v>21330051920198</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920188</v>
+        <v>21330051920198</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920189</v>
+        <v>21330051920198</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920189</v>
+        <v>21330051920199</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920189</v>
+        <v>21330051920199</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920189</v>
+        <v>21330051920200</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920189</v>
+        <v>21330051920200</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920189</v>
+        <v>21330051920200</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920190</v>
+        <v>21330051920200</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920190</v>
+        <v>21330051920201</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920190</v>
+        <v>21330051920202</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920190</v>
+        <v>21330051920202</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920190</v>
+        <v>21330051920203</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920190</v>
+        <v>21330051920203</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920191</v>
+        <v>21330051920203</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920191</v>
+        <v>21330051920203</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920191</v>
+        <v>21330051920204</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920191</v>
+        <v>21330051920209</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920191</v>
+        <v>21330051920212</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920191</v>
+        <v>21330051920212</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>21330051920192</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>21330051920192</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>21330051920192</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>21330051920192</v>
-      </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>21330051920192</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>21330051920192</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>21330051920193</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>21330051920193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>21330051920193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>21330051920193</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>21330051920193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>21330051920193</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>21330051920194</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>21330051920194</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>21330051920194</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>21330051920194</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>21330051920194</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>21330051920194</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>21330051920195</v>
-      </c>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>21330051920195</v>
-      </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>124</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920195</v>
-      </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920195</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920195</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920195</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920196</v>
-      </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920196</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920196</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920196</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920196</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920196</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920197</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920197</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920197</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920197</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920197</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920197</v>
-      </c>
-      <c r="B79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920386</v>
-      </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920386</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" t="s">
-        <v>127</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920386</v>
-      </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920386</v>
-      </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920386</v>
-      </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920386</v>
-      </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920198</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920198</v>
-      </c>
-      <c r="B87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920198</v>
-      </c>
-      <c r="B88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920198</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920198</v>
-      </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920198</v>
-      </c>
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920199</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D92" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920199</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" t="s">
-        <v>129</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920199</v>
-      </c>
-      <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920199</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" t="s">
-        <v>129</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920199</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920199</v>
-      </c>
-      <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" t="s">
-        <v>129</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920200</v>
-      </c>
-      <c r="B98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" t="s">
-        <v>130</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920200</v>
-      </c>
-      <c r="B99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" t="s">
-        <v>72</v>
-      </c>
-      <c r="D99" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920200</v>
-      </c>
-      <c r="B100" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920200</v>
-      </c>
-      <c r="B101" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" t="s">
-        <v>72</v>
-      </c>
-      <c r="D101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920200</v>
-      </c>
-      <c r="B102" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" t="s">
-        <v>72</v>
-      </c>
-      <c r="D102" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920200</v>
-      </c>
-      <c r="B103" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D103" t="s">
-        <v>130</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920201</v>
-      </c>
-      <c r="B104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920201</v>
-      </c>
-      <c r="B105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" t="s">
-        <v>131</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920201</v>
-      </c>
-      <c r="B106" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920201</v>
-      </c>
-      <c r="B107" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920201</v>
-      </c>
-      <c r="B108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920201</v>
-      </c>
-      <c r="B109" t="s">
-        <v>77</v>
-      </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>21330051920202</v>
-      </c>
-      <c r="B110" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>21330051920202</v>
-      </c>
-      <c r="B111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" t="s">
-        <v>104</v>
-      </c>
-      <c r="D111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>21330051920202</v>
-      </c>
-      <c r="B112" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>21330051920202</v>
-      </c>
-      <c r="B113" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>21330051920202</v>
-      </c>
-      <c r="B114" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" t="s">
-        <v>132</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>21330051920202</v>
-      </c>
-      <c r="B115" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>21330051920203</v>
-      </c>
-      <c r="B116" t="s">
-        <v>79</v>
-      </c>
-      <c r="C116" t="s">
-        <v>105</v>
-      </c>
-      <c r="D116" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>21330051920203</v>
-      </c>
-      <c r="B117" t="s">
-        <v>79</v>
-      </c>
-      <c r="C117" t="s">
-        <v>105</v>
-      </c>
-      <c r="D117" t="s">
-        <v>133</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920203</v>
-      </c>
-      <c r="B118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" t="s">
-        <v>105</v>
-      </c>
-      <c r="D118" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920203</v>
-      </c>
-      <c r="B119" t="s">
-        <v>79</v>
-      </c>
-      <c r="C119" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920203</v>
-      </c>
-      <c r="B120" t="s">
-        <v>79</v>
-      </c>
-      <c r="C120" t="s">
-        <v>105</v>
-      </c>
-      <c r="D120" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920203</v>
-      </c>
-      <c r="B121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" t="s">
-        <v>105</v>
-      </c>
-      <c r="D121" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920204</v>
-      </c>
-      <c r="B122" t="s">
-        <v>80</v>
-      </c>
-      <c r="C122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920204</v>
-      </c>
-      <c r="B123" t="s">
-        <v>80</v>
-      </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920204</v>
-      </c>
-      <c r="B124" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" t="s">
-        <v>134</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920204</v>
-      </c>
-      <c r="B125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920204</v>
-      </c>
-      <c r="B126" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" t="s">
-        <v>106</v>
-      </c>
-      <c r="D126" t="s">
-        <v>134</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920204</v>
-      </c>
-      <c r="B127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C127" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" t="s">
-        <v>134</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920205</v>
-      </c>
-      <c r="B128" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" t="s">
-        <v>107</v>
-      </c>
-      <c r="D128" t="s">
-        <v>135</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920205</v>
-      </c>
-      <c r="B129" t="s">
-        <v>81</v>
-      </c>
-      <c r="C129" t="s">
-        <v>107</v>
-      </c>
-      <c r="D129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920205</v>
-      </c>
-      <c r="B130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D130" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920205</v>
-      </c>
-      <c r="B131" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" t="s">
-        <v>107</v>
-      </c>
-      <c r="D131" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920205</v>
-      </c>
-      <c r="B132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" t="s">
-        <v>135</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920205</v>
-      </c>
-      <c r="B133" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" t="s">
-        <v>107</v>
-      </c>
-      <c r="D133" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920206</v>
-      </c>
-      <c r="B134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" t="s">
-        <v>136</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920206</v>
-      </c>
-      <c r="B135" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" t="s">
-        <v>136</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920206</v>
-      </c>
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" t="s">
-        <v>108</v>
-      </c>
-      <c r="D136" t="s">
-        <v>136</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920206</v>
-      </c>
-      <c r="B137" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" t="s">
-        <v>108</v>
-      </c>
-      <c r="D137" t="s">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920206</v>
-      </c>
-      <c r="B138" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" t="s">
-        <v>136</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920206</v>
-      </c>
-      <c r="B139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" t="s">
-        <v>108</v>
-      </c>
-      <c r="D139" t="s">
-        <v>136</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920207</v>
-      </c>
-      <c r="B140" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" t="s">
-        <v>137</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920207</v>
-      </c>
-      <c r="B141" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" t="s">
-        <v>137</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920207</v>
-      </c>
-      <c r="B142" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D142" t="s">
-        <v>137</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920207</v>
-      </c>
-      <c r="B143" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" t="s">
-        <v>86</v>
-      </c>
-      <c r="D143" t="s">
-        <v>137</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920207</v>
-      </c>
-      <c r="B144" t="s">
-        <v>83</v>
-      </c>
-      <c r="C144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" t="s">
-        <v>137</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920207</v>
-      </c>
-      <c r="B145" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" t="s">
-        <v>137</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>21330051920208</v>
-      </c>
-      <c r="B146" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>21330051920208</v>
-      </c>
-      <c r="B147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" t="s">
-        <v>94</v>
-      </c>
-      <c r="D147" t="s">
-        <v>138</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>21330051920208</v>
-      </c>
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" t="s">
-        <v>94</v>
-      </c>
-      <c r="D148" t="s">
-        <v>138</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>21330051920208</v>
-      </c>
-      <c r="B149" t="s">
-        <v>84</v>
-      </c>
-      <c r="C149" t="s">
-        <v>94</v>
-      </c>
-      <c r="D149" t="s">
-        <v>138</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>21330051920208</v>
-      </c>
-      <c r="B150" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" t="s">
-        <v>138</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>21330051920208</v>
-      </c>
-      <c r="B151" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" t="s">
-        <v>94</v>
-      </c>
-      <c r="D151" t="s">
-        <v>138</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920209</v>
-      </c>
-      <c r="B152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" t="s">
-        <v>109</v>
-      </c>
-      <c r="D152" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920209</v>
-      </c>
-      <c r="B153" t="s">
-        <v>85</v>
-      </c>
-      <c r="C153" t="s">
-        <v>109</v>
-      </c>
-      <c r="D153" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>21330051920209</v>
-      </c>
-      <c r="B154" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" t="s">
-        <v>109</v>
-      </c>
-      <c r="D154" t="s">
-        <v>139</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>21330051920209</v>
-      </c>
-      <c r="B155" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" t="s">
-        <v>109</v>
-      </c>
-      <c r="D155" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>21330051920209</v>
-      </c>
-      <c r="B156" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" t="s">
-        <v>109</v>
-      </c>
-      <c r="D156" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>21330051920209</v>
-      </c>
-      <c r="B157" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" t="s">
-        <v>109</v>
-      </c>
-      <c r="D157" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>21330051920210</v>
-      </c>
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" t="s">
-        <v>110</v>
-      </c>
-      <c r="D158" t="s">
-        <v>140</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>21330051920210</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D159" t="s">
-        <v>140</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920210</v>
-      </c>
-      <c r="B160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" t="s">
-        <v>110</v>
-      </c>
-      <c r="D160" t="s">
-        <v>140</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920210</v>
-      </c>
-      <c r="B161" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" t="s">
-        <v>110</v>
-      </c>
-      <c r="D161" t="s">
-        <v>140</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920210</v>
-      </c>
-      <c r="B162" t="s">
-        <v>86</v>
-      </c>
-      <c r="C162" t="s">
-        <v>110</v>
-      </c>
-      <c r="D162" t="s">
-        <v>140</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920210</v>
-      </c>
-      <c r="B163" t="s">
-        <v>86</v>
-      </c>
-      <c r="C163" t="s">
-        <v>110</v>
-      </c>
-      <c r="D163" t="s">
-        <v>140</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920211</v>
-      </c>
-      <c r="B164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" t="s">
-        <v>96</v>
-      </c>
-      <c r="D164" t="s">
-        <v>141</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920211</v>
-      </c>
-      <c r="B165" t="s">
-        <v>87</v>
-      </c>
-      <c r="C165" t="s">
-        <v>96</v>
-      </c>
-      <c r="D165" t="s">
-        <v>141</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920211</v>
-      </c>
-      <c r="B166" t="s">
-        <v>87</v>
-      </c>
-      <c r="C166" t="s">
-        <v>96</v>
-      </c>
-      <c r="D166" t="s">
-        <v>141</v>
-      </c>
-      <c r="E166" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920211</v>
-      </c>
-      <c r="B167" t="s">
-        <v>87</v>
-      </c>
-      <c r="C167" t="s">
-        <v>96</v>
-      </c>
-      <c r="D167" t="s">
-        <v>141</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920211</v>
-      </c>
-      <c r="B168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" t="s">
-        <v>96</v>
-      </c>
-      <c r="D168" t="s">
-        <v>141</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920211</v>
-      </c>
-      <c r="B169" t="s">
-        <v>87</v>
-      </c>
-      <c r="C169" t="s">
-        <v>96</v>
-      </c>
-      <c r="D169" t="s">
-        <v>141</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920212</v>
-      </c>
-      <c r="B170" t="s">
-        <v>88</v>
-      </c>
-      <c r="C170" t="s">
-        <v>111</v>
-      </c>
-      <c r="D170" t="s">
-        <v>142</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920212</v>
-      </c>
-      <c r="B171" t="s">
-        <v>88</v>
-      </c>
-      <c r="C171" t="s">
-        <v>111</v>
-      </c>
-      <c r="D171" t="s">
-        <v>142</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>21330051920212</v>
-      </c>
-      <c r="B172" t="s">
-        <v>88</v>
-      </c>
-      <c r="C172" t="s">
-        <v>111</v>
-      </c>
-      <c r="D172" t="s">
-        <v>142</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>21330051920212</v>
-      </c>
-      <c r="B173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" t="s">
-        <v>111</v>
-      </c>
-      <c r="D173" t="s">
-        <v>142</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>21330051920212</v>
-      </c>
-      <c r="B174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" t="s">
-        <v>111</v>
-      </c>
-      <c r="D174" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>21330051920212</v>
-      </c>
-      <c r="B175" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" t="s">
-        <v>111</v>
-      </c>
-      <c r="D175" t="s">
-        <v>142</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>21330051920213</v>
-      </c>
-      <c r="B176" t="s">
-        <v>89</v>
-      </c>
-      <c r="C176" t="s">
-        <v>112</v>
-      </c>
-      <c r="D176" t="s">
-        <v>143</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>21330051920213</v>
-      </c>
-      <c r="B177" t="s">
-        <v>89</v>
-      </c>
-      <c r="C177" t="s">
-        <v>112</v>
-      </c>
-      <c r="D177" t="s">
-        <v>143</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>21330051920213</v>
-      </c>
-      <c r="B178" t="s">
-        <v>89</v>
-      </c>
-      <c r="C178" t="s">
-        <v>112</v>
-      </c>
-      <c r="D178" t="s">
-        <v>143</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>21330051920213</v>
-      </c>
-      <c r="B179" t="s">
-        <v>89</v>
-      </c>
-      <c r="C179" t="s">
-        <v>112</v>
-      </c>
-      <c r="D179" t="s">
-        <v>143</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>21330051920213</v>
-      </c>
-      <c r="B180" t="s">
-        <v>89</v>
-      </c>
-      <c r="C180" t="s">
-        <v>112</v>
-      </c>
-      <c r="D180" t="s">
-        <v>143</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>21330051920213</v>
-      </c>
-      <c r="B181" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" t="s">
-        <v>112</v>
-      </c>
-      <c r="D181" t="s">
-        <v>143</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>21330051920214</v>
-      </c>
-      <c r="B182" t="s">
-        <v>90</v>
-      </c>
-      <c r="C182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D182" t="s">
-        <v>144</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>21330051920214</v>
-      </c>
-      <c r="B183" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" t="s">
-        <v>113</v>
-      </c>
-      <c r="D183" t="s">
-        <v>144</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>21330051920214</v>
-      </c>
-      <c r="B184" t="s">
-        <v>90</v>
-      </c>
-      <c r="C184" t="s">
-        <v>113</v>
-      </c>
-      <c r="D184" t="s">
-        <v>144</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>21330051920214</v>
-      </c>
-      <c r="B185" t="s">
-        <v>90</v>
-      </c>
-      <c r="C185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D185" t="s">
-        <v>144</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>21330051920214</v>
-      </c>
-      <c r="B186" t="s">
-        <v>90</v>
-      </c>
-      <c r="C186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D186" t="s">
-        <v>144</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>21330051920214</v>
-      </c>
-      <c r="B187" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" t="s">
-        <v>113</v>
-      </c>
-      <c r="D187" t="s">
-        <v>144</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7362,70 +4482,70 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920185</v>
+        <v>21330051920186</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920186</v>
+        <v>21330051920198</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920187</v>
+        <v>21330051920200</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920188</v>
+        <v>21330051920203</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7433,16 +4553,16 @@
         <v>21330051920189</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7450,407 +4570,407 @@
         <v>21330051920190</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920191</v>
+        <v>21330051920195</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920192</v>
+        <v>21330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920193</v>
+        <v>21330051920197</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920194</v>
+        <v>21330051920199</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920195</v>
+        <v>21330051920202</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920196</v>
+        <v>21330051920212</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920197</v>
+        <v>21330051920191</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920386</v>
+        <v>21330051920192</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920198</v>
+        <v>21330051920194</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920200</v>
+        <v>21330051920204</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920201</v>
+        <v>21330051920209</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920202</v>
+        <v>21330051920185</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920203</v>
+        <v>21330051920187</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>133</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920204</v>
+        <v>21330051920188</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>134</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920205</v>
+        <v>21330051920193</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
         <v>135</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920206</v>
+        <v>21330051920196</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920207</v>
+        <v>21330051920205</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
         <v>137</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920208</v>
+        <v>21330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920209</v>
+        <v>21330051920207</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>139</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920210</v>
+        <v>21330051920208</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
         <v>140</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920211</v>
+        <v>21330051920210</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>141</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920212</v>
+        <v>21330051920211</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>142</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7858,16 +4978,16 @@
         <v>21330051920213</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
         <v>143</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7875,16 +4995,16 @@
         <v>21330051920214</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7894,7 +5014,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7932,13 +5052,13 @@
         <v>21330051920199</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -7955,13 +5075,13 @@
         <v>21330051920199</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -7978,13 +5098,13 @@
         <v>21330051920201</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -8001,13 +5121,13 @@
         <v>21330051920201</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -8024,13 +5144,13 @@
         <v>21330051920191</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -8047,13 +5167,13 @@
         <v>21330051920192</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -8067,16 +5187,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920193</v>
+        <v>21330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -8090,16 +5210,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920194</v>
+        <v>21330051920204</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -8113,93 +5233,70 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920204</v>
+        <v>21330051920207</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21330051920207</v>
+        <v>21330051920209</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920209</v>
+        <v>21330051920213</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>21330051920213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13">
         <v>5</v>
       </c>
     </row>

--- a/grupos/1BM - Estadisticos 20211.xlsx
+++ b/grupos/1BM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="145">
   <si>
     <t>Materia</t>
   </si>
@@ -251,184 +251,184 @@
     <t>PEREZ</t>
   </si>
   <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>PEDRO EVER</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAIR</t>
+  </si>
+  <si>
+    <t>JORGE GUILLERMO</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>CESAR SAID</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PATRICIO</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>WENCESLAO</t>
+  </si>
+  <si>
+    <t>ADAHIR</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ANGEL DANIEL</t>
+  </si>
+  <si>
+    <t>JORGE MARIO</t>
+  </si>
+  <si>
+    <t>LUIS REY</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
     <t>QUIJANO</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
+    <t>ROSALIANO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>MIXCOA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>DEL ROSARIO</t>
   </si>
   <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>PEDRO EVER</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAIR</t>
-  </si>
-  <si>
-    <t>JORGE GUILLERMO</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>CESAR SAID</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>PATRICIO</t>
-  </si>
-  <si>
-    <t>GREGORIO</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>WENCESLAO</t>
-  </si>
-  <si>
-    <t>ADAHIR</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>JOSE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL</t>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>CUICAHUA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>NEIL</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JASIEL</t>
+  </si>
+  <si>
+    <t>CELSO ALEJANDRO</t>
   </si>
   <si>
     <t>JUAN PABLO</t>
-  </si>
-  <si>
-    <t>JORGE MARIO</t>
-  </si>
-  <si>
-    <t>LUIS REY</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>ROSALIANO</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>CUICAHUA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>NEIL</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>JASIEL</t>
-  </si>
-  <si>
-    <t>CELSO ALEJANDRO</t>
   </si>
   <si>
     <t>DIEGO HUMBERTO</t>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>-1</v>
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2487,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2541,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>7</v>
@@ -3388,25 +3388,25 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3617,7 +3617,7 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3637,7 +3637,7 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3657,7 +3657,7 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -3677,7 +3677,7 @@
         <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3694,10 +3694,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -3714,10 +3714,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -3734,10 +3734,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -3754,10 +3754,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3774,10 +3774,10 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3794,10 +3794,10 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3814,10 +3814,10 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3834,10 +3834,10 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3854,10 +3854,10 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3874,10 +3874,10 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -3894,10 +3894,10 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -3914,10 +3914,10 @@
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -3934,10 +3934,10 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -3954,10 +3954,10 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -3974,10 +3974,10 @@
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -3994,10 +3994,10 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -4014,10 +4014,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -4034,10 +4034,10 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -4054,10 +4054,10 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -4074,10 +4074,10 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -4094,10 +4094,10 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -4114,10 +4114,10 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -4128,22 +4128,22 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920199</v>
+        <v>21330051920200</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4157,13 +4157,13 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4177,13 +4177,13 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4197,53 +4197,53 @@
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920200</v>
+        <v>21330051920201</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920201</v>
+        <v>21330051920202</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4254,36 +4254,36 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920202</v>
+        <v>21330051920203</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4294,16 +4294,16 @@
         <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4314,16 +4314,16 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4334,50 +4334,50 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920203</v>
+        <v>21330051920209</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
         <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920204</v>
+        <v>21330051920212</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4388,61 +4388,21 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920209</v>
+        <v>21330051920212</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>21330051920212</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>21330051920212</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4491,7 +4451,7 @@
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4505,10 +4465,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4525,7 +4485,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4539,10 +4499,10 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4556,10 +4516,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4573,10 +4533,10 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4590,10 +4550,10 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4607,10 +4567,10 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4624,10 +4584,10 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4635,16 +4595,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920199</v>
+        <v>21330051920202</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4652,16 +4612,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920202</v>
+        <v>21330051920212</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4669,33 +4629,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920212</v>
+        <v>21330051920191</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920191</v>
+        <v>21330051920192</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4703,16 +4663,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920192</v>
+        <v>21330051920194</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4720,16 +4680,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920194</v>
+        <v>21330051920199</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4743,10 +4703,10 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4754,16 +4714,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920204</v>
+        <v>21330051920209</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4771,30 +4731,30 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920209</v>
+        <v>21330051920185</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920185</v>
+        <v>21330051920187</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
@@ -4805,13 +4765,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920187</v>
+        <v>21330051920188</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>133</v>
@@ -4822,13 +4782,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920188</v>
+        <v>21330051920193</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
         <v>134</v>
@@ -4839,13 +4799,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920193</v>
+        <v>21330051920196</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
         <v>135</v>
@@ -4856,13 +4816,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920196</v>
+        <v>21330051920204</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
@@ -4876,10 +4836,10 @@
         <v>21330051920205</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>137</v>
@@ -4893,10 +4853,10 @@
         <v>21330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
@@ -4910,10 +4870,10 @@
         <v>21330051920207</v>
       </c>
       <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>139</v>
@@ -4927,10 +4887,10 @@
         <v>21330051920208</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>140</v>
@@ -4944,10 +4904,10 @@
         <v>21330051920210</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
         <v>141</v>
@@ -4961,10 +4921,10 @@
         <v>21330051920211</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
         <v>142</v>
@@ -4978,10 +4938,10 @@
         <v>21330051920213</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>143</v>
@@ -4995,10 +4955,10 @@
         <v>21330051920214</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
@@ -5014,7 +4974,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5049,10 +5009,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -5061,21 +5021,21 @@
         <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -5095,45 +5055,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920201</v>
+        <v>21330051920191</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920201</v>
+        <v>21330051920192</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5141,13 +5101,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920191</v>
+        <v>21330051920194</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -5164,22 +5124,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920192</v>
+        <v>21330051920199</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5187,39 +5147,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920194</v>
+        <v>21330051920207</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920204</v>
+        <v>21330051920209</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5233,16 +5193,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21330051920207</v>
+        <v>21330051920213</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -5251,52 +5211,6 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>21330051920209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>21330051920213</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>

--- a/grupos/1BM - Estadisticos 20211.xlsx
+++ b/grupos/1BM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="145">
   <si>
     <t>Materia</t>
   </si>
@@ -221,208 +221,208 @@
     <t>CHULIN</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>PEDRO EVER</t>
+  </si>
+  <si>
+    <t>ANGEL ALDAIR</t>
+  </si>
+  <si>
+    <t>JORGE GUILLERMO</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>CESAR SAID</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>PATRICIO</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>WENCESLAO</t>
+  </si>
+  <si>
+    <t>ADAHIR</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ANGEL DANIEL</t>
+  </si>
+  <si>
+    <t>JORGE MARIO</t>
+  </si>
+  <si>
+    <t>LUIS REY</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>ELVIRA</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>RICO</t>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>QUIJANO</t>
+  </si>
+  <si>
+    <t>ROSALIANO</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>MIXCOA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>DEL ROSARIO</t>
   </si>
   <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>PEDRO EVER</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAIR</t>
-  </si>
-  <si>
-    <t>JORGE GUILLERMO</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>CESAR SAID</t>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>CUICAHUA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>NEIL</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JASIEL</t>
   </si>
   <si>
     <t>JULIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>PATRICIO</t>
-  </si>
-  <si>
-    <t>GREGORIO</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>WENCESLAO</t>
-  </si>
-  <si>
-    <t>ADAHIR</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>JOSE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL</t>
-  </si>
-  <si>
-    <t>JORGE MARIO</t>
-  </si>
-  <si>
-    <t>LUIS REY</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>QUIJANO</t>
-  </si>
-  <si>
-    <t>ROSALIANO</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>CUICAHUA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>NEIL</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>JASIEL</t>
   </si>
   <si>
     <t>CELSO ALEJANDRO</t>
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -3388,25 +3388,25 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>54.84</v>
+        <v>58.06</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>45.16</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3576,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,10 +3614,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3634,10 +3634,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3654,10 +3654,10 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -3674,10 +3674,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -3694,10 +3694,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -3714,10 +3714,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -3734,10 +3734,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -3754,10 +3754,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -3774,10 +3774,10 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3794,10 +3794,10 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3814,10 +3814,10 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3834,10 +3834,10 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3848,22 +3848,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920194</v>
+        <v>21330051920195</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3871,19 +3871,19 @@
         <v>21330051920195</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3891,39 +3891,39 @@
         <v>21330051920195</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920195</v>
+        <v>21330051920197</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3931,39 +3931,39 @@
         <v>21330051920197</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920197</v>
+        <v>21330051920386</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3971,19 +3971,19 @@
         <v>21330051920386</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3991,39 +3991,39 @@
         <v>21330051920386</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920386</v>
+        <v>21330051920198</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4031,19 +4031,19 @@
         <v>21330051920198</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4051,19 +4051,19 @@
         <v>21330051920198</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4071,53 +4071,53 @@
         <v>21330051920198</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920198</v>
+        <v>21330051920199</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920199</v>
+        <v>21330051920200</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -4131,19 +4131,19 @@
         <v>21330051920200</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4151,19 +4151,19 @@
         <v>21330051920200</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4171,59 +4171,59 @@
         <v>21330051920200</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920200</v>
+        <v>21330051920201</v>
       </c>
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920201</v>
+        <v>21330051920202</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4231,39 +4231,39 @@
         <v>21330051920202</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920202</v>
+        <v>21330051920203</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4271,19 +4271,19 @@
         <v>21330051920203</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4291,19 +4291,19 @@
         <v>21330051920203</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4311,53 +4311,53 @@
         <v>21330051920203</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920203</v>
+        <v>21330051920209</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920209</v>
+        <v>21330051920212</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -4371,38 +4371,18 @@
         <v>21330051920212</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>21330051920212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4448,10 +4428,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4462,13 +4442,13 @@
         <v>21330051920198</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4479,13 +4459,13 @@
         <v>21330051920200</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4496,13 +4476,13 @@
         <v>21330051920203</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4516,10 +4496,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4533,10 +4513,10 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4547,13 +4527,13 @@
         <v>21330051920195</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -4564,13 +4544,13 @@
         <v>21330051920386</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -4581,13 +4561,13 @@
         <v>21330051920197</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4598,13 +4578,13 @@
         <v>21330051920202</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4615,13 +4595,13 @@
         <v>21330051920212</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4635,10 +4615,10 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4652,10 +4632,10 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4663,16 +4643,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920194</v>
+        <v>21330051920199</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4680,16 +4660,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4697,13 +4677,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920201</v>
+        <v>21330051920209</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -4714,30 +4694,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920209</v>
+        <v>21330051920185</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920185</v>
+        <v>21330051920187</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -4748,13 +4728,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920187</v>
+        <v>21330051920188</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>132</v>
@@ -4765,13 +4745,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920188</v>
+        <v>21330051920193</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
         <v>133</v>
@@ -4782,13 +4762,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920193</v>
+        <v>21330051920194</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>134</v>
@@ -4802,10 +4782,10 @@
         <v>21330051920196</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>135</v>
@@ -4819,10 +4799,10 @@
         <v>21330051920204</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>136</v>
@@ -4836,10 +4816,10 @@
         <v>21330051920205</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>137</v>
@@ -4853,10 +4833,10 @@
         <v>21330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
@@ -4870,10 +4850,10 @@
         <v>21330051920207</v>
       </c>
       <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
         <v>116</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
       </c>
       <c r="D27" t="s">
         <v>139</v>
@@ -4887,10 +4867,10 @@
         <v>21330051920208</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>140</v>
@@ -4904,10 +4884,10 @@
         <v>21330051920210</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
         <v>141</v>
@@ -4921,10 +4901,10 @@
         <v>21330051920211</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>142</v>
@@ -4938,10 +4918,10 @@
         <v>21330051920213</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>143</v>
@@ -4955,10 +4935,10 @@
         <v>21330051920214</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
@@ -4974,7 +4954,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5012,13 +4992,13 @@
         <v>21330051920201</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5035,13 +5015,13 @@
         <v>21330051920201</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -5061,10 +5041,10 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -5084,10 +5064,10 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -5101,22 +5081,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920194</v>
+        <v>21330051920199</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5124,93 +5104,70 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920199</v>
+        <v>21330051920207</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920207</v>
+        <v>21330051920209</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920209</v>
+        <v>21330051920213</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>21330051920213</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10">
         <v>5</v>
       </c>
     </row>
